--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/59_Muğla_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/59_Muğla_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE559698-134D-4EDC-A26C-7C9ECE4915B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83AD243E-BD99-41A2-8A04-4012DC7DB61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{46D56374-ADF6-469C-BBC0-BF727EFDB59E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{8D3F36D0-4EE1-4064-9737-EA4D13DAA8BA}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -967,13 +967,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{C6B6915E-5798-4786-B027-86965E00E474}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{CF7DB5C1-C151-4BF9-99F8-5941649C940A}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{E38165F2-0A2A-4169-9DB5-6A7832C1D26C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{32524746-A9D8-436D-A5AF-7C57BF6C1994}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{2C566F46-F920-470E-862C-D0C9604635CB}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{5175A1E6-6FC6-4A2E-BF06-0732E9415585}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{5F95B3BC-AD42-4C8F-9B0D-A519FF7DBBDF}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{AE7469E0-FF20-458B-9F4B-06D4B9BEFE58}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7E88604C-D2BC-4254-BEB8-77B36D7B2EBA}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{715B4D61-F7DF-4097-A4DD-9821188C6635}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{566CD3B0-BD00-42A3-84F5-751C7A81B665}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{49CFF6F2-D41C-4B7B-8F5F-B302E74CD07F}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{E00C9A05-4E71-479C-9A15-581C07E19441}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C5875F2C-EDCA-486B-9DF7-ACF0361B4A18}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1343,7 +1343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA5C5B4-613A-4370-9B41-2A8D238FEDEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4330CC0-EBD5-4387-9CCA-34E67F9CA269}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2616,18 +2616,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{64594970-C99F-4112-A44A-A7405F5A5F63}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E87C48C9-EDC4-46CD-8D6C-33792BB2D892}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E8088A8E-2A7B-43BE-AD64-0A1030FD37C2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4FFBA845-D02B-45FF-8EF3-274F6031F0E7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{478F3DDC-1D5C-454F-B4AD-883A1872B948}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E2096810-31B2-4254-B61B-1738DB7B7D1B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{56B9B2DE-3AF2-497A-AACB-AC68D01A305F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{58E96918-0C53-4EEC-8D2C-BCBE8754ABD5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D98C3F90-64E8-4C75-962A-2AF2D7BA09A8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FE3A8510-DD57-4D8A-B3F2-B13FDBFA777D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD8448B1-1B84-4060-A49F-8E5D5DCB20DA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6050F11F-79E3-494A-8325-EF37A80B5F46}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5477DFA1-B92F-46C5-9911-7625B64262D4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{11CE3877-A240-4964-ACDA-BC9FFA49A32E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4578BA1E-9699-498F-BBB2-09527C9D8691}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{35382D16-4FAF-497B-8EBF-FEAB40592133}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C7B58FA5-389D-4043-9E97-171CE919A6CE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9B7B46A1-6BC7-46EA-B2CE-EE219900E7F2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{34F9E036-2794-4FEB-8D60-9FBAABA712AC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C7488CF9-0F90-4F9E-8A94-5010E8EE537D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8AFC2C78-92A2-4480-9D8D-D1EFE1CD739D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F267C017-D778-4977-9954-764AFAE88434}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C685259E-820E-4511-A0A4-7B51FA20A4EA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{883EA6A9-CC38-488B-AF8E-43E39CB99A32}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2640,7 +2640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044225E1-6D0E-45BB-8C18-A036B62C783F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188057A2-9F9C-4AF5-B5C8-0142B5A71939}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3894,18 +3894,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1DCDBE95-26D7-484B-A6BA-511ABA71CED8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F8E4F41F-F698-4D15-BE47-E2EEF3F1BD75}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ABBD3C4D-810E-4894-AB4B-D6773D33B99E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0B697760-46A8-47D7-92BE-784AB8CA00D7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C1987E1F-7F29-4F06-B8EF-14A205A13CA6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AFAE48D2-9904-43A8-96BD-AF56F9164C09}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8EC0CEE5-4924-4B4B-8043-6AF45F79F1E8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6620B13C-AFDE-46CC-9422-7F926B44D71B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0306C547-3CBF-4CA5-A8E0-9A7D070DC130}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2CE451AE-DB32-48C2-A45C-5EA0273DEDF8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C705BA63-3563-47E9-B904-A49FC9BD9AC6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5E4D9281-AC56-4DC3-9480-39036C1A046C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2C745715-CA15-44E5-BCEA-D90277075D2F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{55BB1809-D663-4BF2-8B5A-39C1EC46B667}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F9E4A7D2-B12A-4B68-BEEC-E646FE60D638}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BCCFEA94-15FD-41E4-A0CE-CDDCFB55BFA4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1034CF40-8207-4356-8D8B-D250F5476980}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{232B8840-E9B6-499F-BE37-EE9BBEEE5EE0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FC4EF7D0-7D93-4D30-AC92-F2358CB126E9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{16DE995A-7F03-49A4-9F6A-5C10794AA158}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{17612071-F9CB-4F0F-A92F-01A108097216}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{404E35EF-4D1D-4738-99F3-87EDA3EF448D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7834EFE7-0A57-4B30-A284-9BCAB17270C7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E49654A1-835A-427D-BD97-F6A29086DDC5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3918,7 +3918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0685EBEE-71CD-4A65-B7E2-BE7176FEA4C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C05A300-C0B7-4E7A-BA0A-A7A2EEA52E5E}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5172,18 +5172,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{488093BA-16A3-4FAC-B5A3-F9E00C375837}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{64782250-1A54-465D-B9DB-9CF107D0DA13}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D4130F20-2648-403E-88AB-DAAE05123E5C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C5F2BB9B-3190-43CD-A018-E120A15C79EC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CB1C8FE0-910F-4544-8AA4-19074541AEA0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1A4E7FFE-7F9D-4B6E-B6C1-801C75275BFC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C020CAB-ABFC-498A-A031-2E4E1B50F636}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F72A2559-43B6-4A85-8053-C61CBE46CD7E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2FFBF185-BE54-4782-B7BE-69FF2242A730}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{199321B0-A62E-486E-9469-4193220711EA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D40F760B-217B-4F19-A69F-1770E89A745C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A124BD3A-E2CC-40D9-BDEC-A1DF788029AC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4B28592A-20EC-40D9-8F1A-23B824749C47}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5BD8605-4A41-443D-B6C8-AB44B326F260}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0E3B0165-9D55-4889-918C-C67E26859E7F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5E69CE99-428D-4081-A564-3E6EC0FB0AD2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E504AE44-5C57-4BEA-B89C-B536F8B383C2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{771B12F5-4F85-44B8-8A80-64466E11100F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3327209A-ED60-4400-B6C0-82E65E161D33}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{260A3FA4-7B27-4A65-9B00-766D0CF97600}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E2FA11E2-D720-4D98-84A3-622471486D0D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{48FC5829-6122-4D3A-AEDF-C864EC10B175}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{44CF3EA5-2311-44F4-A46C-6A2FBD286C37}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F056310E-EBF1-4548-87F2-CF9A7E71DBC2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5196,7 +5196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C88908-078C-4063-A80B-9E356D4D72EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C26CA8-A0D7-4036-9A77-B37501E1711E}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6442,18 +6442,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1B9AD357-4294-4699-9B87-1425F24F990C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8A179CCE-C99C-4473-844F-0800BD4113FD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{24FEDA00-DEE6-43CB-8E25-71ECDEE75110}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D4B127A9-37A6-46AA-ADFD-5F90B4CC0132}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D4A924E-7999-44BF-8FFE-70EBDB52F32C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8696D24B-AEB3-4987-96F1-59C1B3EF555C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{318A215B-7E94-4281-8348-4A2F6F8A9A7C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9F89505-87AC-4E47-A4D9-414F1E1E2E9E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{586A811F-AB3D-41D3-8FEB-173BD4C956C1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{73D28A4D-8433-4876-B267-D468AC048217}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E189636-83B1-4071-A222-6A725AF43214}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ADB000DE-5970-40AA-82B8-FE9249BA81A5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{815D972E-92DE-4465-B54A-420D940634D7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{66A01EA9-61C8-4F49-96F4-9F3D0A104FB7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{81869CF1-E43E-46CD-B7C9-0330C40D83A2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2A6D858D-2623-43C4-9EA8-714C178CC8F5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CE5F7C80-6DCA-4C9F-892B-60530D8E2530}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{350F0815-C24A-4467-ACA5-82C4F7F7BE9D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{78383C29-FF5E-421D-A6D7-842E56816081}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A68E4840-56F8-42CE-91F8-4531A77CB250}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9AF64727-F01E-48B7-86EA-C3E5CCF71207}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8E7FF14E-2348-4F96-8E06-32E65CFFF438}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D8D41E78-56CD-485E-A645-27FD48C5A900}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B1760DF5-A1B1-4154-8768-7A3DE3D1898C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6466,7 +6466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82B8988-65EC-4128-823E-92445FA04267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A627C6-F420-4FB5-95D8-DC96C7CD326F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7735,18 +7735,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E2AE40E8-EAB9-48ED-BCD5-44A236CA66E8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5C445FF3-054C-4B56-BE5D-2F782F028ED4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{112D8F03-597D-44A6-9999-26351779D27A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9D7DACF8-5489-46B5-ADB6-B5BBECE5EE5B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7A49C118-FAE7-46AC-B504-6F7B3757B190}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{447CBF48-FCB8-48BB-A75B-B35C6F6AC13F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{10899478-529C-42B2-9914-E7ACA18ECC63}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B5C0203C-2E99-4155-88D5-DE637A2C15D1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{860EF205-DD70-457B-8BF3-B95A179E6FA0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{540FD921-800A-4B7C-B5BE-E2686E09227C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{94E3DB82-529E-408D-9613-EE55E34CF42F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7AD652F9-FCBA-4244-84D0-D2F195A7EC01}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{688DB7C5-0EFB-4055-8B02-BB378B2CEBA4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{98459334-DD92-4035-8F35-30D1B14D7507}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3E096096-B886-4DA8-8366-BF32D3D87047}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{746AC4DC-AF90-4239-9923-E9BF0C0B3114}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5C0E8919-CE1E-4CB3-BF33-5934F6B53947}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AC3263F7-B2AD-4A70-8B3F-8BFB91595B2D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2C9F82A9-B2C8-4E32-91B7-EC21F211EB45}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{44ECD86E-053E-4B36-AC52-472C57B08319}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CDCB9B81-EE80-4B71-96BC-6F4DEB5D65FA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5888C9C4-CC18-42E8-942C-A16A3CA61ED9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AA17DC07-5DD9-46D3-BA7F-8CF9F97BE83C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{06774FAD-860E-497C-ADD1-05A5AC6C4CFB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7759,7 +7759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2F19B6-3206-4897-927C-A27F95ED4E5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4500C937-E7F0-47AB-AA05-4F5074FE3AC9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9028,18 +9028,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0A5B0561-3771-4362-964D-7EEEE3DEA90C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D162F83-2604-4DB2-B5F9-C0FCC342886D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6267F7A8-6746-4E0D-81C1-AFCD8DC4D0F9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ABF7DD12-3D00-43CC-A365-5B936D244132}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E125F79F-CE49-496F-AAC7-59D2D9160830}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6C361842-E1A0-4467-821B-EB7838366BAE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BE3F1D11-B3DC-4DCF-B932-51925EFEDA3A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DA0C61AF-5E7F-4C94-9A2A-3F02B449D878}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{330BF797-8BA1-4938-B165-93024B8F8A6D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1683FFE0-EE66-40BE-A6B3-99FE529427A3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F50E80C4-7FC8-4152-A3C7-7F5F5378D21F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E09648E2-3848-4194-8339-6647A7B8F843}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{100C8357-3569-43D8-AF6C-EB5AD5602CBA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AF5A815A-B1BC-439E-89EF-EB9E3E068933}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3B46776E-B25A-4718-8B6D-AA64838F1216}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9E751A81-7C0D-4CB6-9A9D-576A18C102A1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9C9CBBD3-9AE8-4C9C-B4A5-5C2FDC1FCA75}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9D5E5E82-8489-47D3-9891-4FC3F6856EC2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{23BDC8E3-5671-49BA-A1DF-B368C1CCBF64}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1881E2C2-1519-4E66-8209-2142C60D5EA2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4DEBA917-A0B3-452A-B1C1-133CEEB92392}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4F2D2D7C-8E4F-40ED-8653-52FE81A8E976}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BE7D3910-A23A-4CF4-B2F2-2B188845402D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{743B37A2-C90D-449B-8E46-67FC8C909E64}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9052,7 +9052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B110E4DD-4D68-456D-B5D3-D5BC07BC6FF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77F8EC5-2D3B-4662-B8C3-12C3BAE9DF31}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10321,18 +10321,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{54C8E0F4-0797-4540-8D04-B4DC441F8718}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7A6A3B39-3E65-4E94-88B8-1B6AE6FA54F4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{93E8FBE9-8D40-40FE-B230-8B7A1B0ED92B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F48370FA-90F6-46B1-AEA4-9FCE94EB6BF6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A3ECE7AB-6F78-4805-97FA-F55C1B6BBB67}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6D0BA407-05B2-4801-87BB-4B74D453BCB4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B515D3F6-0416-4E9B-846D-B54B2B6C084F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{711371BC-FC48-407B-B67D-779443D5BC2D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A55ED391-BEFA-42CB-99D9-A48A6E288A8F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F83AFD8C-4BE7-44FC-B674-C4A980AF3E0A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A0179AD9-3C6C-4FCE-81B9-736240836351}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7F77DF9B-54FF-4570-9B89-5A08B7E05BE3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F09D50E-13BD-402E-8BC0-3E49145B3947}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5567893B-CF8E-430D-AC27-A4CBB126DFEC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A504777E-5B67-4F05-8E35-DF5D9DABB04A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BCB74363-CF08-4951-AAD8-383B863EAD5B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4F77FC69-9539-470F-9B35-9F577F0A23C6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0FF5B485-21A3-4FF6-9EBF-8571A8E6A15B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{09EDF6B0-12C3-45B0-8248-D1D74035ECC0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C03507D-8201-4F9F-B63D-1DEE6EA6115F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2DB00C01-81A4-4B23-BBC6-A1CC8F35693B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{93D2B20C-1899-4D59-A9E3-3E5400A81C33}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{11ED00E4-59E7-4581-93D8-E6C0D68CD736}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E6885084-3CF7-465D-AB6E-E0226F04EA3F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10345,7 +10345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C2C6ED-B62B-4AE8-8076-8652F58794F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F9212E-F7B7-4165-9A22-68BFC4BB34A6}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11614,18 +11614,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BE7B4886-D7CA-4AD7-B104-4C7F6E9736B3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{143829E5-8BF7-40C0-A26F-F7721A96043B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{33AD4C95-BE9F-4289-B326-9B4D04550133}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5C7A0418-63B3-4BE1-B4E9-BC9F09F52C81}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{411184B4-BEB4-4734-9886-10AD19CF1F47}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6A037790-4FB8-4DC3-91B9-C22ACD76E253}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{28793AC0-D03E-479A-960F-64743E8B8840}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0777B7E-10DB-432E-833E-59CAD20DC906}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7A6D4D5A-39BD-41AE-8EA8-8D12FFC27E7E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8887B3D2-2B43-4941-BB3F-CEB7546B62C7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{456D056C-9288-4C4D-A5FC-8D74742DC8D1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7986E062-41FD-4270-A93F-E516C0F0893E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8428A54B-AEF3-46CD-8777-6BC49F75E75F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{898519D3-2B75-4064-B6C1-3F5A74401AF1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6410CA21-1BB9-4426-BBBA-872EAF03BCBE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1FF81E3E-0359-4295-BA7C-C01D087A8D9E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E53CA556-224A-47F7-A4E8-18029DFCAFF1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C84763BF-08EE-42D1-9406-9AF778B3BF16}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7BCDD7D2-F5D6-4945-A940-43596EC88DFF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4279A209-9258-4417-8D19-7E6C208351D4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FD309FCD-4C79-4DBC-A99F-7CAF9C9989D4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{73FA0EA6-26B6-4809-A605-425554B091FC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{45881AE7-76AF-4EFC-A202-F9C93544DAAE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{546B614E-E627-4E13-A408-DC2B5CBAEEA3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11638,7 +11638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260CE19A-849C-4633-9644-6AB09F7F0D59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D8279C-A91C-4883-AE6A-9668098244DC}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12899,18 +12899,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CC8717BE-5AB9-4F6C-B6B8-87EDEB98D248}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C73673B6-3174-4BAA-8449-8EDDA8D977A0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{559D75B3-031E-4F0E-80CF-27A149E4FDFF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0DAB4EB8-D6D8-4308-AED4-33983011E4AE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A27A3092-6917-4195-94D6-3D2A86BAF4C6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{60329D2C-0150-4D8D-B832-B6D8F9DBA640}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{660EC25F-A6A2-4117-A0BA-F3210472C9F3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{07ACD923-5742-46A4-B059-C95891050221}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{527C5DAA-BC33-4173-B36C-A06EB8141DD3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{93FD2B4E-D01D-43F4-9305-DDF5CCAD9127}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{742A6F16-D32D-45E7-8B4D-3EEB4F60D8EB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AD77F1A3-8D49-4C11-A2DB-99ABC959A499}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8657AAB1-CFB5-4014-A375-721B3BD1A11D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C00BD5BA-46DA-4BD7-B34F-16177278846B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3EB55F1D-76F5-4D85-A524-1B8BE5541487}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6305E743-CA88-45DB-8867-099A624EA759}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9A3B9383-6495-4013-8CE8-7ADF9526F832}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{34813ECA-ED4E-4BA1-B48A-9CD719B199B4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9AEDD4FB-5A47-4EA4-AEBF-538CA68B6BF7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{66A81C79-70E0-47EF-99F4-7B13CC580AB1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C47DE988-C5EC-4AE6-8CBD-2C6717425627}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C8853FF5-B3BD-4FAD-A5F1-834A3DBEF3BC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1B705F62-D1E6-4F59-B3CB-A51C39AF5CC6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0563BD26-9496-46B9-BC92-6EFE0BA17AE6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12923,7 +12923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC19871C-2862-42BC-AF6E-EE0FC91840F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D488869E-D46E-47AF-9280-DB2E0DE95D70}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14185,18 +14185,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E9AA1BC-93B0-4CAF-9134-F96DEEB0445E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D44BDBBE-8B34-4B08-ADDB-8194F9A05113}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F182E3B9-A3BE-4626-8978-A0ED9F0F5746}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7ABC0718-1448-4D24-BF99-CC2BE2C50B39}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1ECD3BDB-FB52-4C52-97B0-54F32A25EC96}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F19A7348-A284-4650-B48B-F54AE7CEE2B3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5DE961EB-DEFB-41EC-82E7-1D443B19A20B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{19F1FAFD-CAE3-44C0-B5F8-8BA09BFA7A3A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{366F9CE7-4679-4052-B757-D32F29109EDB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2B9427A4-FF8B-42F1-A95C-79B5B9D4C83F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5746267B-6423-45E1-8E5D-B93ACFB68D03}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{248C3967-C3D3-4B10-936C-7B9508608001}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{477E2191-5C50-4BE8-A62D-1FA8CC340FDD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{027F8D4F-D201-476D-812C-AF69F9CFC901}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4A91D13E-6B2E-4993-A3C1-F4B91E82D1AB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8978FF0E-13BC-4B79-8D2D-18F60B9B1F5B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{624BF044-5A19-4183-B537-B9177A7BFE01}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A2294F51-6DF5-4B4A-B6CA-B5924883458A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E12350B1-01C9-4DD6-B54F-45CC9298CA20}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3A836308-6B00-4F09-8879-37453B0443D4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7725CD06-F612-4A25-981E-71117D198D4F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{680FFD4A-A9E6-432F-8C75-E57EAA7D3295}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A267968A-27BC-4657-98B5-ADF934A9635E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{62C66421-E80E-451A-84CF-95D6FCF2385E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14209,7 +14209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687EEE6B-3788-47C8-A593-415CABACDC81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E261F4E3-06EA-425F-82E9-660B32C248AC}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15467,18 +15467,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{84DC4AE1-1B99-4D9A-ACFF-C79B2B733E1C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{52F22323-6E41-4422-9FAC-25476AB5EAE3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DB9A52B8-A988-4EDB-A12B-28AF3E1C5F3F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6238089A-9E00-4C76-A332-32DB96A3CB02}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B84A3758-B1D2-4BAB-89AC-4BC1D0E007DC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E8917DF2-F6ED-4FA9-B5EA-15C41326B800}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4616FDFC-3B87-4D0C-9A2B-27F6503F1E0B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1FAE981B-8C04-4D87-A84C-17708C9AC193}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CE8D465B-32C4-4054-B30F-7554B056EB9B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{39782381-8B18-4485-963B-3FD1C974C118}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3DE5CD56-B204-4DFF-A5A4-28DFD7F762C4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{10C25973-29D9-4AE3-9975-F65D08E388FE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EE1635D9-30C4-4B61-94D4-FF5C598D1670}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C12E883D-4E07-4FAC-888D-F68B39BDB73F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B2E84A8A-F61A-482E-B1F4-789837133834}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{22C52641-64D5-420B-890A-3BA51C224FED}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CFDF68E5-BFBA-464D-9A3D-78306084F3FD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FB43CC64-369C-48E6-BE4A-8B584B3B8260}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E3D3D551-C5B6-4CAE-B4C6-29242ABEF0CB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7D9DD37E-2E04-4CD7-932F-814BAF6B95C1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4299DCD7-D2E4-4E9E-8BE4-7B51E406B0DF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FC03EBCE-9A51-4CF2-A4B4-99CDCFA2F178}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BC91016B-F9B9-4FC1-8F59-E58DFF4418BA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E2EAF1EC-B4CE-4F2A-AF9E-3922D3078F78}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15491,7 +15491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC11D41-15C5-4337-9994-80CC1040CCA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E982FA06-87E1-4D02-A06C-39D09DCBBD98}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16745,18 +16745,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D45EEC3E-E919-4F65-83F4-9CA43CA40CF4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C6152C5-33C5-4779-BA50-B0C2BD10DFDC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{477DCFE4-8DE6-4F65-9DE5-2C0361FB2674}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{15DE98DD-A646-46F9-8C7D-908BB1700853}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{556CFC16-405C-46B5-B27E-AA99A2C3998D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{712BD6AC-1D63-481B-88E0-A0861295DA14}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3FD31BAD-0B20-4512-BD30-908FD0C99B3A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BFA958AD-3613-401A-BD3B-1DE7E635A0C7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{06369E55-955C-40BB-AB0D-18DCAE6284F9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{00683E2D-5289-4CA7-ABC0-DADDE852BBC9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0D6A7F2-EA9B-43F8-A322-5B76CE34C68D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DDF0F1EC-0A21-46A6-95E0-2A20E631A6DB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5BBF845F-198A-495D-8B8E-61D94DB07D4A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3AD69846-248C-4FFE-AC9F-4866D7F6751C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B58F8B9F-ACDA-4F38-A017-D01EF65EAC5B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{02B07900-847B-4F55-B039-827B6029AED9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5FCB22B5-E6BF-473F-9910-D5E36EF211FE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6A8525A4-2E25-4AD1-B015-033B36E6ABEA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DEF08D52-B5C7-4527-83BF-C6DA8B6C172C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D736620F-BDB3-4EE5-987D-50C771F37685}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EDF3CA9E-4CB2-456E-BD3B-9E3B4881B1D2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{42349A4C-F06B-49B7-B78E-52461EBF1C57}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A525B5D5-1CBF-4E9E-B962-C86D2E51FD64}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9BF6D726-F49D-479A-AF17-EF82C66EBB01}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
